--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2137052.616011371</v>
+        <v>2134800.536300162</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283179</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>120.774090540354</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>218.1690567639045</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247811</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -877,10 +877,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>255.2783480473515</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>206.5922292904588</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0.3107267886856425</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>17.35112070699578</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>3.166281869766549</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>144.7268717888058</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>78.78083674902116</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>139.175595971221</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>76.95030199542374</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>77.31354443380458</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710098</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174105</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.949385892745</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,13 +1585,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409458224</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,10 +1610,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206852</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722591</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>18.70843787977755</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710086</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833946</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>182.4326803923963</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710094</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>18.70843787977304</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>11.56087338713452</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766892</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>78.68827782033961</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,10 +3010,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>33.01627976944155</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740365</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609172</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>135.0949745400657</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>134.5665975534214</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505422</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,13 +4325,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>3325.605821609171</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2952.140063348092</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,70 +4383,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.7293032143257</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="C4" t="n">
-        <v>212.7293032143257</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143257</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143257</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143257</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
         <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W4" t="n">
-        <v>622.3673189425826</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="X4" t="n">
-        <v>394.3777680445654</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="Y4" t="n">
-        <v>394.3777680445654</v>
+        <v>382.1280466398576</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1285.591601078694</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>916.6290841382827</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
         <v>523.5814653477182</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W5" t="n">
-        <v>3197.788768583745</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X5" t="n">
-        <v>2824.323010322666</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,10 +4647,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,31 +4662,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501176</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362.8175152271517</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C7" t="n">
-        <v>362.8175152271517</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>362.8175152271517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>362.8175152271517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>215.9275677292414</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>215.9275677292414</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>69.71038094709914</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,10 +4744,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
@@ -4759,16 +4759,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="Y7" t="n">
-        <v>362.8175152271517</v>
+        <v>216.6287558445192</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>553.6195264050914</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>546.6740256558879</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,13 +4799,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4814,16 +4814,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450754</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2424.744041450754</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4875,19 +4875,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.6594280995014</v>
+        <v>685.8122911638644</v>
       </c>
       <c r="C10" t="n">
-        <v>294.7232451715945</v>
+        <v>608.0847133907091</v>
       </c>
       <c r="D10" t="n">
-        <v>144.6066057592588</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>906.6048703073945</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>685.8122911638644</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5030,28 +5030,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5078,13 +5078,13 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5121,25 +5121,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M12" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N12" t="n">
-        <v>1318.79311422913</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>1870.702844468417</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>784.5811134804959</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C13" t="n">
-        <v>615.644930552589</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402533</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5233,16 +5233,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761979</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191927</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349518</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>923.0670414349518</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1550.665004989559</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2102.574735228846</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400762</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121693</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998336</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038379</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797783</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853366</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832668</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138461</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703159</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5525,40 +5525,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143766</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.80077839983</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.80077839983</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.80077839983</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>194.80077839983</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T19" t="n">
-        <v>2012.787110747773</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U19" t="n">
-        <v>1723.711884091971</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,34 +5738,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708873</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.395944601127</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192548</v>
@@ -5990,16 +5990,16 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2185.384895601573</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400749</v>
+        <v>1031.26032167505</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>862.324138747143</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>712.2074993348073</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>564.2944057524141</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797781</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487571</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510512</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.38585385471</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648823</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611862</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138447</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703146</v>
+        <v>1212.90878650529</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6716,34 +6716,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,40 +7184,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910817</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570825</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.08939327981</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853369</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580268</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832671</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-2.819358206164921e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>-6.905216081693889e-13</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.557953848736361e-12</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.88259428919233</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>2.671640686457977e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667916</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.3204386478844</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,13 +23941,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>34.97276993489194</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>205.8445769401537</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>121.5862749664513</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392193867</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>66.73277020259164</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>112.4047682534897</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459132</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>211.9838267404993</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>32.15184655856214</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>46.4596884482232</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>118.3918499711696</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>839524.1439825025</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839524.1439825025</v>
+        <v>839524.1439825029</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>839524.1439825026</v>
+        <v>839524.1439825027</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>839524.1439825026</v>
+        <v>839524.1439825027</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>839524.1439825029</v>
+        <v>839524.1439825027</v>
       </c>
     </row>
     <row r="16">
@@ -26314,22 +26314,22 @@
         <v>595255.2831516056</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516057</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
+        <v>585181.2847752541</v>
+      </c>
+      <c r="G2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="H2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752543</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752544</v>
@@ -26338,22 +26338,22 @@
         <v>585181.2847752543</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="N2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.694760941172718e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818173</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818176</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683034</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683033</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
+        <v>12996.86414683039</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12996.86414683041</v>
+      </c>
+      <c r="I4" t="n">
         <v>12996.86414683046</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12996.86414683035</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683038</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683054</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26479,10 +26479,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-933607.3020555619</v>
+        <v>-933607.3020555623</v>
       </c>
       <c r="C6" t="n">
         <v>395137.4436720308</v>
       </c>
       <c r="D6" t="n">
-        <v>395137.4436720305</v>
+        <v>395137.4436720306</v>
       </c>
       <c r="E6" t="n">
-        <v>145649.4289971618</v>
+        <v>145614.6910717259</v>
       </c>
       <c r="F6" t="n">
-        <v>471061.890804517</v>
+        <v>471027.1528790801</v>
       </c>
       <c r="G6" t="n">
-        <v>471061.8908045169</v>
+        <v>471027.1528790809</v>
       </c>
       <c r="H6" t="n">
-        <v>471061.8908045168</v>
+        <v>471027.1528790816</v>
       </c>
       <c r="I6" t="n">
-        <v>471061.8908045169</v>
+        <v>471027.1528790812</v>
       </c>
       <c r="J6" t="n">
-        <v>253530.6884072393</v>
+        <v>253495.9504818036</v>
       </c>
       <c r="K6" t="n">
-        <v>471061.8908045168</v>
+        <v>471027.152879081</v>
       </c>
       <c r="L6" t="n">
-        <v>471061.8908045169</v>
+        <v>471027.1528790813</v>
       </c>
       <c r="M6" t="n">
-        <v>386006.8628690051</v>
+        <v>385972.1249435691</v>
       </c>
       <c r="N6" t="n">
-        <v>471061.8908045168</v>
+        <v>471027.1528790811</v>
       </c>
       <c r="O6" t="n">
-        <v>471061.8908045168</v>
+        <v>471027.1528790811</v>
       </c>
       <c r="P6" t="n">
-        <v>471061.8908045169</v>
+        <v>471027.1528790811</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26926,13 +26926,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>244.4988012306536</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>168.0688818921491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,16 +27543,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>31.2446502892395</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>19.11742609857836</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,13 +27619,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.3723148319973</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>331.8898480104172</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27777,22 +27777,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>93.18613854007154</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>73.85778156328902</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>303.9530049144594</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>271.7461296822324</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>90.29651910320409</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>69.12041821276459</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28026,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.266523520590673e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.866338314877469e-12</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>3.393552105990239e-12</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28798,10 +28798,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29697,7 +29697,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>7.517303009959066e-12</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,10 +31841,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>289.7537444526272</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>353.393490704276</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175665</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940669</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>483.3274636075158</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>183.7183104822597</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>553.3925020622929</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>742.9354859824765</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>652.3203287778402</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159405</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>163.4402738502014</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>506.5895320981975</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>219.4190832899457</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096384</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902938</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962241</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394655</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>340.7312191630714</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>45.87687150790075</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>414.8381222824187</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191352</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>611.5937738991432</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>520.978616694507</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010465</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193496</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010526</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>368.0351523183234</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
